--- a/static/data_bcb.xlsx
+++ b/static/data_bcb.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>36800</v>
+        <v>36526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>36831</v>
+        <v>36557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>36861</v>
+        <v>36586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.59</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>36892</v>
+        <v>36526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>36923</v>
+        <v>36557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>36951</v>
+        <v>36586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>36982</v>
+        <v>36526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>37012</v>
+        <v>36557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
@@ -542,307 +542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>37043</v>
+        <v>36586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>37073</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>37104</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>37135</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>36800</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>36831</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>36861</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>36892</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>36923</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>36951</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>36982</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>37012</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>37043</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>37073</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>37104</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>37135</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>36800</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>36831</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>36861</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>36892</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>36923</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>36951</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>36982</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>37012</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>37043</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>37073</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>37104</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>37135</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
